--- a/xlsx/人口学_intext.xlsx
+++ b/xlsx/人口学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社会学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_人口学</t>
+    <t>政策_政策_政治学_人口学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E7%90%86%E8%AE%BA</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>結構與能動性</t>
+    <t>结构与能动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算社會學</t>
+    <t>计算社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>社會變遷</t>
+    <t>社会变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市社會學</t>
+    <t>都市社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>越軌社會學</t>
+    <t>越轨社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>社會不平等</t>
+    <t>社会不平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業社會學</t>
+    <t>工业社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>社會企業</t>
+    <t>社会企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
   </si>
   <si>
-    <t>經濟思想史</t>
+    <t>经济思想史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會人類學</t>
+    <t>社会人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -413,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會哲學</t>
+    <t>社会哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E7%88%86%E7%82%B8</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%A2%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>人口增長</t>
+    <t>人口增长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E9%BE%84%E5%8C%96</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>人口結構</t>
+    <t>人口结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -731,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -767,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
   </si>
   <si>
-    <t>中心商務區</t>
+    <t>中心商务区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%88%90%E5%8C%BA</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%9B%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>市區更新</t>
+    <t>市区更新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%95%87%E4%BD%93%E7%B3%BB</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%AD%E6%9E%97%E8%AE%BE%E8%AE%A1</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -959,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>雅典憲章</t>
+    <t>雅典宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>組合城市</t>
+    <t>组合城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%88%B7%E5%9F%8E%E5%B8%82</t>
@@ -977,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>衛星城市</t>
+    <t>卫星城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>新市鎮</t>
+    <t>新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%BB%E9%87%8C%E5%8D%95%E4%BD%8D</t>
@@ -1031,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E5%9F%8E%E5%B8%82</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>雙城</t>
+    <t>双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%9C%B0%E7%90%86%E8%AE%BA</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%BD%B1%E9%9F%BF%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>環境影響評估</t>
+    <t>环境影响评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E6%89%BF%E8%BD%BD%E5%8A%9B</t>
@@ -1127,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E9%A2%A8%E6%A8%93</t>
   </si>
   <si>
-    <t>屏風樓</t>
+    <t>屏风楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E5%B0%BE%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>爛尾建築</t>
+    <t>烂尾建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%A0%B5%E5%A1%9E</t>
@@ -1151,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%8E%AE</t>
   </si>
   <si>
-    <t>鬼鎮</t>
+    <t>鬼镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AD%A6</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -1211,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AE%B9%E7%A7%AF%E7%8E%87</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%94%B9%E6%AD%A3</t>
   </si>
   <si>
-    <t>市區改正</t>
+    <t>市区改正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>香港新市鎮</t>
+    <t>香港新市镇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Data_collection</t>
@@ -1283,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%A8%A3</t>
   </si>
   <si>
-    <t>抽樣</t>
+    <t>抽样</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%8F%E5%8D%B7%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>問卷調查</t>
+    <t>问卷调查</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interview_(research)</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%BC%8F%E8%A8%AA%E8%AB%87</t>
   </si>
   <si>
-    <t>結構式訪談</t>
+    <t>结构式访谈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semi-structured_interview</t>
@@ -1325,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>資料分析</t>
+    <t>资料分析</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Categorical_variable</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%B0%BA%E5%BA%A6</t>
   </si>
   <si>
-    <t>測量尺度</t>
+    <t>测量尺度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -1361,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%AE%8A%E9%87%8F%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>多變量分析</t>
+    <t>多变量分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E8%AB%96%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>推論統計學</t>
+    <t>推论统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E6%A8%A1%E5%9E%8B</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>圖模式</t>
+    <t>图模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A%E6%9D%BE%E5%9B%9E%E5%BD%92</t>
@@ -1403,19 +1403,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E8%A6%96%E7%8E%87</t>
   </si>
   <si>
-    <t>收視率</t>
+    <t>收视率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>市場調查</t>
+    <t>市场调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BF%E8%AB%96%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>輿論調查</t>
+    <t>舆论调查</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Afrobarometer</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83%E8%AA%BF%E6%9F%A5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>國際社會調查計畫</t>
+    <t>国际社会调查计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Latinobar%C3%B3metro</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E6%B4%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>蓋洛普</t>
+    <t>盖洛普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%9F%E8%AE%A1%E5%AD%A6%E4%BC%9A</t>
@@ -1517,13 +1517,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%85%AC%E5%85%B1%E8%BC%BF%E8%AB%96%E7%A0%94%E7%A9%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>世界公共輿論研究學會</t>
+    <t>世界公共舆论研究学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
